--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions_0.5.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2784001986906825</t>
+          <t>0.3126339569108806</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>219</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.20600123419907207</t>
+          <t>0.19185096984422045</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.28387756857687846</t>
+          <t>0.2725617225183447</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>167</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.24752794375715312</t>
+          <t>0.24688258690916107</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>167</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.13164801004033405</t>
+          <t>0.12907862322849248</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.12317916063108368</t>
+          <t>0.14093138408603517</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.1008107976266627</t>
+          <t>0.09734451715568228</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.1572617834755941</t>
+          <t>0.16466920549839034</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.2225519226669821</t>
+          <t>0.22336037557506888</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.27715601727549743</t>
+          <t>0.26942288915527046</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.34599744581123687</t>
+          <t>0.34140659400119805</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.2297556777314294</t>
+          <t>0.2112855727678055</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.047437886307363314</t>
+          <t>0.04561375321774139</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.39343236488383665</t>
+          <t>0.40804330950023415</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>326</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.04130746167738721</t>
+          <t>0.022531586323948978</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.3539329104893983</t>
+          <t>0.3688073897517824</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.008796839511735365</t>
+          <t>0.009698668957928216</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.2294917844254226</t>
+          <t>0.22312501143071486</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.006082518662537559</t>
+          <t>0.004304221917390641</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.28517905089176643</t>
+          <t>0.28910835848459215</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.03739268189185662</t>
+          <t>0.03161151283985389</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.36544752503302913</t>
+          <t>0.34722994219962555</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.04509176073389515</t>
+          <t>0.035950255358507294</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>247</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.33248579224536706</t>
+          <t>0.34293262458655305</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.4949067003431211</t>
+          <t>0.4900980057399461</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.2843366827721147</t>
+          <t>0.29579542896600214</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.5055733372761285</t>
+          <t>0.5021277228784164</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>328</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.3299892636051761</t>
+          <t>0.3345180265532906</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.4979609909800557</t>
+          <t>0.4844254336362487</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.4231799886588843</t>
+          <t>0.41553020088079723</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.5500181066532864</t>
+          <t>0.5367171411437038</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.39182570633060154</t>
+          <t>0.39700385729246246</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.45667115826617755</t>
+          <t>0.4462775370418681</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.32172939744504897</t>
+          <t>0.327443536037822</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>288</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.4585403658030863</t>
+          <t>0.44356072327674756</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.3540610196471447</t>
+          <t>0.3734903921553536</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>283</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5255907333138954</t>
+          <t>0.5280672114723723</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4281902812126658</t>
+          <t>0.4095336207871352</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>269</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5964881376938765</t>
+          <t>0.5976984825941367</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.45207472338441895</t>
+          <t>0.4475382813486087</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>260</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.11294499244000158</t>
+          <t>0.1458928157511754</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.2010860425311539</t>
+          <t>0.20605668846371786</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>312</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.23896864255470301</t>
+          <t>0.2579043420005524</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.21176681055191193</t>
+          <t>0.20591831889741077</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.1885171579401352</t>
+          <t>0.19211703124832513</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.2956587948189016</t>
+          <t>0.2648467217297236</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.37092441080948346</t>
+          <t>0.35781585611994093</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.27905033546970565</t>
+          <t>0.2819502500127992</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.15060713619871124</t>
+          <t>0.145446246344248</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.26525284861386433</t>
+          <t>0.2539815166863951</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.3119438297393979</t>
+          <t>0.3329971552149808</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.2759572515250649</t>
+          <t>0.2585171364510141</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.3460353190526477</t>
+          <t>0.33919868105974177</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.2821660214445956</t>
+          <t>0.29011818506014214</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>217</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.4280825341459629</t>
+          <t>0.4248786517104895</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.38901933843995634</t>
+          <t>0.4055899153891405</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.39824175016793917</t>
+          <t>0.4011874373130883</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.31471952707185025</t>
+          <t>0.29957692098163174</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.47925264119752475</t>
+          <t>0.46866479509168285</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3134807025867704</t>
+          <t>0.323524797996163</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>258</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.5068210147507952</t>
+          <t>0.49708877651607924</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.4038395092833078</t>
+          <t>0.40325438962734467</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>256</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>245</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.5658475665758054</t>
+          <t>0.5608731906717338</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.38679306312215367</t>
+          <t>0.41149036362466046</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>255</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>250</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.44706660606119</t>
+          <t>0.4463859485755091</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>287</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.3711940489810701</t>
+          <t>0.33801698028427746</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>251</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.5054182874732339</t>
+          <t>0.5205211505463673</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.3749293903460983</t>
+          <t>0.3771095419455534</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>220</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.488630753608153</t>
+          <t>0.48643846002856683</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4164589973683961</t>
+          <t>0.41123516604948057</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.5392620378086238</t>
+          <t>0.5416433269606303</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.4000006195895155</t>
+          <t>0.3906508968975242</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>204</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.18832186807613363</t>
+          <t>0.19457140622747807</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>289</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.5159383368716346</t>
+          <t>0.5134178023805813</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>272</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.2525657048677163</t>
+          <t>0.24758805567629238</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>405</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.5431003468329153</t>
+          <t>0.5357252989918821</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.3470566340248035</t>
+          <t>0.35476322553785555</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.5847641670804348</t>
+          <t>0.5904265231459271</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.36504913248751875</t>
+          <t>0.376748072752974</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.6320215663689455</t>
+          <t>0.6333921144583955</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.2524123694783542</t>
+          <t>0.2518792628669992</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>405</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.529257805487565</t>
+          <t>0.510624209733759</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.3232035521928884</t>
+          <t>0.32377814369542085</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>315</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.5306166559703669</t>
+          <t>0.534206017581672</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.3992951892625388</t>
+          <t>0.424027374332014</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>239</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.6430636832556634</t>
+          <t>0.6548707193252435</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.4864710568501388</t>
+          <t>0.47751265463307385</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>240</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.6702514758234457</t>
+          <t>0.6701632051810622</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.0676893145481439</t>
+          <t>0.07245891815101237</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.3450613134481959</t>
+          <t>0.3276746254062944</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>205</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.11159150440168816</t>
+          <t>0.12177660847560459</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.38065025740069763</t>
+          <t>0.3821763251432657</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.21755381603093174</t>
+          <t>0.2131301711045999</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.43561564191074187</t>
+          <t>0.42449699575699346</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>327</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.20645475536606148</t>
+          <t>0.22279616979755518</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.4924875840153033</t>
+          <t>0.48005127776449064</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.1349816708668959</t>
+          <t>0.12344677667513314</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.3991221268629576</t>
+          <t>0.4214056565868738</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.21533005679095693</t>
+          <t>0.20702080856076874</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.42351265339316035</t>
+          <t>0.41763852762857967</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.2706465595943514</t>
+          <t>0.29568776146870784</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>259</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.49952226142940026</t>
+          <t>0.5018453319365178</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>377</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.29809193789634536</t>
+          <t>0.3092023464327267</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.5613759654249485</t>
+          <t>0.5615957003656499</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.2528508714497476</t>
+          <t>0.26267467462879845</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>195</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>336</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5101750210781631</t>
+          <t>0.49821730036450074</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>359</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.280846018598175</t>
+          <t>0.25837016354099357</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.5470264441509104</t>
+          <t>0.5712091497220753</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>405</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.35021949127105373</t>
+          <t>0.34071884995874496</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.6271491021673533</t>
+          <t>0.6224778253161309</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>438</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.3558830131202037</t>
+          <t>0.3690006243255557</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.634301304624565</t>
+          <t>0.6483128616937963</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>452</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.2996553788796492</t>
+          <t>0.31202935585802927</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.5143992159171482</t>
+          <t>0.5215623062776505</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>373</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.3789901498455127</t>
+          <t>0.3488850145383109</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.5791150552140099</t>
+          <t>0.5937093384617845</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.44660527693766255</t>
+          <t>0.4715737235693606</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.6516694247486271</t>
+          <t>0.6592721042799644</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.47981663038002204</t>
+          <t>0.47504529851125116</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.6951614081708833</t>
+          <t>0.6795183260888237</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>467</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>144</t>
         </is>
       </c>
     </row>
